--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283055.144700896</v>
+        <v>1279042.534686904</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>299.0513903014196</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.621379957370294</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.8833754684137</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>207.1005556735035</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>169.4049510723426</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039669</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>72.7635348200817</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>317.7571317187202</v>
+        <v>209.3186549522361</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>96.67522690147976</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186475</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.91529601901387</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>53.7694747549375</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.1185786361441</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310325</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>98.99704524587848</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.5413580759688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756203</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>106.8299898147636</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>1412.562675896672</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.25816976153</v>
+        <v>1123.145505859711</v>
       </c>
       <c r="X4" t="n">
-        <v>839.2686188635128</v>
+        <v>1123.145505859711</v>
       </c>
       <c r="Y4" t="n">
-        <v>618.4760397199826</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1887.813801820607</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3044.19904094198</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2713.136153598409</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2360.367498328294</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.901740067214</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>1887.813801820607</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,40 +4652,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1662.110143895035</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.692973858074</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.703422960057</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1938.906022842682</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1938.906022842682</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.812346501092</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1739.812346501092</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1450.709479626735</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1196.024991420848</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1196.024991420848</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.024991420848</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2324122773183</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092265</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026071</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820185</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783224</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885207</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,31 +5287,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756267</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021788</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703109</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3210.485548300425</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2546.907945506608</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>3042.233551722367</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>3639.612039348919</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>4267.210002903525</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524078</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868276</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.71639066239</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7207,16 +7207,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.537229081858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081858</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2272.00829921169</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-4.032039142182524e-14</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.8926045705966</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610398</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>45.37941682721002</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.46607471595073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.52709304639036</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.8640922513194</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.003342051668</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>61.40075786968293</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>74.196296186881</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941027.4129087661</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
@@ -26334,28 +26334,28 @@
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319392</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
@@ -26429,28 +26429,28 @@
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26481,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1036847.46725361</v>
       </c>
       <c r="C6" t="n">
-        <v>291897.2784739827</v>
+        <v>291897.2784739829</v>
       </c>
       <c r="D6" t="n">
-        <v>291897.2784739828</v>
+        <v>291897.2784739829</v>
       </c>
       <c r="E6" t="n">
-        <v>44146.16007089843</v>
+        <v>43798.78081654201</v>
       </c>
       <c r="F6" t="n">
-        <v>369558.6218782535</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="G6" t="n">
-        <v>369558.6218782538</v>
+        <v>369211.2426238968</v>
       </c>
       <c r="H6" t="n">
-        <v>369558.6218782543</v>
+        <v>369211.2426238967</v>
       </c>
       <c r="I6" t="n">
-        <v>369558.6218782538</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="J6" t="n">
-        <v>152027.4194809763</v>
+        <v>151680.0402266193</v>
       </c>
       <c r="K6" t="n">
-        <v>369558.6218782537</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="L6" t="n">
-        <v>369558.6218782536</v>
+        <v>369211.2426238968</v>
       </c>
       <c r="M6" t="n">
-        <v>284503.593942742</v>
+        <v>284156.2146883851</v>
       </c>
       <c r="N6" t="n">
-        <v>369558.6218782536</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="O6" t="n">
-        <v>369558.6218782537</v>
+        <v>369211.2426238967</v>
       </c>
       <c r="P6" t="n">
-        <v>369558.6218782539</v>
+        <v>369211.2426238968</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>28.70086816871532</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.210600224567</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.25426785541433</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>158.1723360975041</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>81.59022088655934</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.3252282894414</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>179.3741085037463</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>36.92590990196277</v>
+        <v>145.3643866684469</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>93.09379842996213</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28316,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-2.355346330481042e-12</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093083</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>305.1876769472499</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34383,13 +34383,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949316</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>211.489036137031</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>167.3462379728909</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279042.534686904</v>
+        <v>1280803.064989689</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>299.0513903014196</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>230.8833754684137</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>228.0656025585478</v>
       </c>
       <c r="C5" t="n">
-        <v>207.1005556735035</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039669</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>209.3186549522361</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>83.44729448253345</v>
       </c>
       <c r="D13" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>20.67756722602948</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>94.91529601901387</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G19" t="n">
-        <v>53.7694747549375</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>136.5667167289879</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>51.36569740310325</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137228</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.99704524587848</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2453.73481737875</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1412.562675896672</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1123.145505859711</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>1123.145505859711</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820607</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796419</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796419</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820607</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518386</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591993</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177607</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051533</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488567</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606599</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>733.7765431483241</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>585.863449565931</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680206</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>271.7774027829005</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397314</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360354</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462336</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318806</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>371.9277983204233</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424045</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>378.6527890600114</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>231.762841562101</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,19 +6463,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,19 +6545,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>422.7903292978459</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>275.9003817999355</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2272.00829921169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-4.032039142182524e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>83.79952661609438</v>
       </c>
       <c r="D13" t="n">
-        <v>44.73700564187206</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>146.5692538725984</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.37941682721002</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G19" t="n">
-        <v>111.7546635373313</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>28.95742156328097</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.52709304639036</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>61.40075786968293</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="14">
@@ -26316,13 +26316,13 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26331,25 +26331,25 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319392</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184274</v>
@@ -26438,28 +26438,28 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1036847.46725361</v>
       </c>
       <c r="C6" t="n">
-        <v>291897.2784739829</v>
+        <v>291897.2784739824</v>
       </c>
       <c r="D6" t="n">
-        <v>291897.2784739829</v>
+        <v>291897.2784739827</v>
       </c>
       <c r="E6" t="n">
-        <v>43798.78081654201</v>
+        <v>44111.42214546283</v>
       </c>
       <c r="F6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528183</v>
       </c>
       <c r="G6" t="n">
-        <v>369211.2426238968</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="H6" t="n">
-        <v>369211.2426238967</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="I6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="J6" t="n">
-        <v>151680.0402266193</v>
+        <v>151992.6815555406</v>
       </c>
       <c r="K6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="L6" t="n">
-        <v>369211.2426238968</v>
+        <v>369523.883952818</v>
       </c>
       <c r="M6" t="n">
-        <v>284156.2146883851</v>
+        <v>284468.8560173062</v>
       </c>
       <c r="N6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.883952818</v>
       </c>
       <c r="O6" t="n">
-        <v>369211.2426238967</v>
+        <v>369523.883952818</v>
       </c>
       <c r="P6" t="n">
-        <v>369211.2426238968</v>
+        <v>369523.8839528181</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>345.9318471227943</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.70086816871532</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>21.25426785541433</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>154.6682391049328</v>
       </c>
       <c r="C5" t="n">
-        <v>158.1723360975041</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.3252282894414</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.3643866684469</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>349.3304751113899</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>211.489036137031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
